--- a/EXCEL/Adactin.xlsx
+++ b/EXCEL/Adactin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4C6C3931-0AFD-4FC5-A831-8BD36C6F99DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{59EAF6C5-F448-486E-8405-52FB73A9F3E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="24270" windowHeight="13800" xr2:uid="{030E7A10-E460-4893-88BB-10F73BDB05A3}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24300" windowHeight="13800" xr2:uid="{030E7A10-E460-4893-88BB-10F73BDB05A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +55,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,13 +85,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,7 +410,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +424,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -449,6 +460,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{88C1E084-724D-4F0F-AB81-B0FDA3E78721}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>